--- a/data/profiles/xlsx/bluff/profile 30-4 graph.xlsx
+++ b/data/profiles/xlsx/bluff/profile 30-4 graph.xlsx
@@ -17454,11 +17454,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="31741381"/>
-        <c:axId val="55653450"/>
+        <c:axId val="75586106"/>
+        <c:axId val="6553534"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31741381"/>
+        <c:axId val="75586106"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17493,12 +17493,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55653450"/>
+        <c:crossAx val="6553534"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55653450"/>
+        <c:axId val="6553534"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17542,7 +17542,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31741381"/>
+        <c:crossAx val="75586106"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
